--- a/database/raw_data/realtion_db/좋은제약_실적자료_최수아_2.xlsx
+++ b/database/raw_data/realtion_db/좋은제약_실적자료_최수아_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Storage_docs\raw_data_enhanced\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Narutalk_V003\beta_v0031\database\raw_data\realtion_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D7284B-8322-4B71-B913-774B71202E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05093F1-B8C9-41B1-88F4-D137B67B484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{3733CF55-8BD5-4EC5-9E6F-C653CDD77201}"/>
+    <workbookView xWindow="2580" yWindow="10290" windowWidth="21600" windowHeight="12670" xr2:uid="{3733CF55-8BD5-4EC5-9E6F-C653CDD77201}"/>
   </bookViews>
   <sheets>
     <sheet name="좋은제약_실적자료_최수아_결측치_수정본" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="126">
   <si>
     <t>담당자</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>품목</t>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>권창호내과의원</t>
+  </si>
+  <si>
+    <t>거래처ID</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF27E5-C581-46F0-A410-D17EB3CD6872}">
   <dimension ref="A1:AB292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="S275" sqref="S275"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1402,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1">
         <v>202212</v>
@@ -1488,16 +1488,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>72761</v>
@@ -1574,16 +1574,16 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1660,16 +1660,16 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>43661</v>
@@ -1746,16 +1746,16 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>30289</v>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>65330</v>
@@ -1918,16 +1918,16 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1299809</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1628</v>
@@ -2090,16 +2090,16 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
       </c>
       <c r="E9">
         <v>4087</v>
@@ -2176,16 +2176,16 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2262,16 +2262,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>2813</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>3230</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>18420</v>
@@ -2520,16 +2520,16 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>834</v>
@@ -2606,16 +2606,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2692,16 +2692,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2778,16 +2778,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>84120</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2950,16 +2950,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>15753</v>
@@ -3122,16 +3122,16 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>440546</v>
@@ -3208,16 +3208,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>37537</v>
@@ -3294,16 +3294,16 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>741</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>369</v>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>6195</v>
@@ -3552,16 +3552,16 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>6566</v>
@@ -3638,16 +3638,16 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
       </c>
       <c r="E27">
         <v>6457</v>
@@ -3724,16 +3724,16 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>46564</v>
@@ -3810,16 +3810,16 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>9312</v>
@@ -3982,16 +3982,16 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>634915</v>
@@ -4068,16 +4068,16 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32">
         <v>224695</v>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>365452</v>
@@ -4240,16 +4240,16 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>105361</v>
@@ -4326,16 +4326,16 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>6988</v>
@@ -4412,16 +4412,16 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>8011</v>
@@ -4498,16 +4498,16 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4584,16 +4584,16 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>39096</v>
@@ -4670,16 +4670,16 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>23206</v>
@@ -4756,16 +4756,16 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>10625</v>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
         <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
       </c>
       <c r="E41">
         <v>113697</v>
@@ -4928,16 +4928,16 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>23535</v>
@@ -5014,16 +5014,16 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43">
         <v>19896</v>
@@ -5100,16 +5100,16 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <v>13568</v>
@@ -5186,16 +5186,16 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>2546</v>
@@ -5272,16 +5272,16 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <v>19533</v>
@@ -5358,16 +5358,16 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5444,16 +5444,16 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>105662</v>
@@ -5530,16 +5530,16 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <v>352690</v>
@@ -5616,16 +5616,16 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5702,16 +5702,16 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5788,16 +5788,16 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52">
         <v>86135</v>
@@ -5874,16 +5874,16 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>3121</v>
@@ -5960,16 +5960,16 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6046,16 +6046,16 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6132,16 +6132,16 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>92089</v>
@@ -6218,16 +6218,16 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>41583</v>
@@ -6304,16 +6304,16 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>2751</v>
@@ -6390,16 +6390,16 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6476,16 +6476,16 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60">
         <v>59232</v>
@@ -6562,16 +6562,16 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6648,16 +6648,16 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6734,16 +6734,16 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E63">
         <v>205661</v>
@@ -6820,16 +6820,16 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E64">
         <v>8539</v>
@@ -6906,16 +6906,16 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>140788</v>
@@ -6992,16 +6992,16 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <v>203139</v>
@@ -7078,16 +7078,16 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67">
         <v>8582</v>
@@ -7164,16 +7164,16 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <v>18810</v>
@@ -7250,16 +7250,16 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>1698</v>
@@ -7336,16 +7336,16 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>25221</v>
@@ -7422,16 +7422,16 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>76830</v>
@@ -7508,16 +7508,16 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -7594,16 +7594,16 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73">
         <v>9160</v>
@@ -7680,16 +7680,16 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74">
         <v>11135</v>
@@ -7766,16 +7766,16 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7852,16 +7852,16 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76">
         <v>877</v>
@@ -7938,16 +7938,16 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>18917</v>
@@ -8024,16 +8024,16 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <v>52443</v>
@@ -8110,16 +8110,16 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>11682</v>
@@ -8196,16 +8196,16 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
         <v>59</v>
-      </c>
-      <c r="D80" t="s">
-        <v>60</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8282,16 +8282,16 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -8368,16 +8368,16 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <v>12503</v>
@@ -8454,16 +8454,16 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" t="s">
         <v>62</v>
-      </c>
-      <c r="D83" t="s">
-        <v>63</v>
       </c>
       <c r="E83">
         <v>6756</v>
@@ -8540,16 +8540,16 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>1095</v>
@@ -8626,16 +8626,16 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85">
         <v>74111</v>
@@ -8712,16 +8712,16 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86">
         <v>4117</v>
@@ -8798,16 +8798,16 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <v>6983</v>
@@ -8884,16 +8884,16 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88">
         <v>3615608</v>
@@ -8970,16 +8970,16 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89">
         <v>97853</v>
@@ -9056,16 +9056,16 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <v>144055</v>
@@ -9142,16 +9142,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>44789</v>
@@ -9228,16 +9228,16 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>17552</v>
@@ -9314,16 +9314,16 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E93">
         <v>14359</v>
@@ -9400,16 +9400,16 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E94">
         <v>156513</v>
@@ -9486,16 +9486,16 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>24477</v>
@@ -9572,16 +9572,16 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
         <v>66</v>
-      </c>
-      <c r="D96" t="s">
-        <v>67</v>
       </c>
       <c r="E96">
         <v>3662</v>
@@ -9658,16 +9658,16 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>35583</v>
@@ -9744,16 +9744,16 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E98">
         <v>94549</v>
@@ -9830,16 +9830,16 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>398034</v>
@@ -9916,16 +9916,16 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>67456</v>
@@ -10002,16 +10002,16 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101">
         <v>989370</v>
@@ -10088,16 +10088,16 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" t="s">
         <v>68</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
       </c>
       <c r="E102">
         <v>250942</v>
@@ -10174,16 +10174,16 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103">
         <v>856333</v>
@@ -10260,16 +10260,16 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E104">
         <v>83652</v>
@@ -10346,16 +10346,16 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -10432,16 +10432,16 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>6067</v>
@@ -10518,16 +10518,16 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E107">
         <v>140431</v>
@@ -10604,16 +10604,16 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>408019</v>
@@ -10690,16 +10690,16 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -10776,16 +10776,16 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>14607</v>
@@ -10862,16 +10862,16 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111">
         <v>31602</v>
@@ -10948,16 +10948,16 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -11034,16 +11034,16 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E113">
         <v>20539</v>
@@ -11120,16 +11120,16 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>10831</v>
@@ -11206,16 +11206,16 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -11292,16 +11292,16 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E116">
         <v>10032</v>
@@ -11378,16 +11378,16 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E117">
         <v>156714</v>
@@ -11464,16 +11464,16 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E118">
         <v>13154</v>
@@ -11550,16 +11550,16 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119">
         <v>149997</v>
@@ -11636,16 +11636,16 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E120">
         <v>1906422</v>
@@ -11722,16 +11722,16 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E121">
         <v>1105551</v>
@@ -11808,16 +11808,16 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122">
         <v>20484</v>
@@ -11894,16 +11894,16 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E123">
         <v>205108</v>
@@ -11980,16 +11980,16 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E124">
         <v>644068</v>
@@ -12066,16 +12066,16 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E125">
         <v>23540</v>
@@ -12152,16 +12152,16 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126">
         <v>130809</v>
@@ -12238,16 +12238,16 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127">
         <v>617246</v>
@@ -12324,16 +12324,16 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E128">
         <v>13558</v>
@@ -12410,16 +12410,16 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129">
         <v>90580</v>
@@ -12496,16 +12496,16 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130">
         <v>179544</v>
@@ -12582,16 +12582,16 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E131">
         <v>11750</v>
@@ -12668,16 +12668,16 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -12754,16 +12754,16 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -12840,16 +12840,16 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E134">
         <v>138599</v>
@@ -12926,16 +12926,16 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -13012,16 +13012,16 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E136">
         <v>2528244</v>
@@ -13098,16 +13098,16 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137">
         <v>176096</v>
@@ -13184,16 +13184,16 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -13270,16 +13270,16 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" t="s">
         <v>82</v>
-      </c>
-      <c r="D139" t="s">
-        <v>83</v>
       </c>
       <c r="E139">
         <v>63527</v>
@@ -13356,16 +13356,16 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -13442,16 +13442,16 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>645</v>
@@ -13528,16 +13528,16 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -13614,16 +13614,16 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E143">
         <v>30929</v>
@@ -13700,16 +13700,16 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -13786,16 +13786,16 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -13872,16 +13872,16 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146">
         <v>95628</v>
@@ -13958,16 +13958,16 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <v>1660</v>
@@ -14044,16 +14044,16 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -14130,16 +14130,16 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -14216,16 +14216,16 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E150">
         <v>8881</v>
@@ -14302,16 +14302,16 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -14388,16 +14388,16 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -14474,16 +14474,16 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E153">
         <v>602985</v>
@@ -14560,16 +14560,16 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -14646,16 +14646,16 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" t="s">
         <v>85</v>
-      </c>
-      <c r="D155" t="s">
-        <v>86</v>
       </c>
       <c r="E155">
         <v>6053</v>
@@ -14732,16 +14732,16 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E156">
         <v>396</v>
@@ -14818,16 +14818,16 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -14904,16 +14904,16 @@
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>122239</v>
@@ -14990,16 +14990,16 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -15076,16 +15076,16 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160">
         <v>355436</v>
@@ -15162,16 +15162,16 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E161">
         <v>21418</v>
@@ -15248,16 +15248,16 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E162">
         <v>23913</v>
@@ -15334,16 +15334,16 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E163">
         <v>6801</v>
@@ -15420,16 +15420,16 @@
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E164">
         <v>13108</v>
@@ -15506,16 +15506,16 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165">
         <v>12904</v>
@@ -15592,16 +15592,16 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E166">
         <v>949</v>
@@ -15678,16 +15678,16 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>4054</v>
@@ -15764,16 +15764,16 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
         <v>120</v>
       </c>
-      <c r="B168" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>121</v>
-      </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E168">
         <v>9726</v>
@@ -15850,16 +15850,16 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
         <v>120</v>
       </c>
-      <c r="B169" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
-        <v>121</v>
-      </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -15936,16 +15936,16 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
         <v>120</v>
       </c>
-      <c r="B170" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>121</v>
-      </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E170">
         <v>137346</v>
@@ -16022,16 +16022,16 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
         <v>120</v>
       </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>121</v>
-      </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -16108,16 +16108,16 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172">
         <v>14098</v>
@@ -16194,16 +16194,16 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
+        <v>87</v>
+      </c>
+      <c r="D173" t="s">
         <v>88</v>
-      </c>
-      <c r="D173" t="s">
-        <v>89</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -16280,16 +16280,16 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E174">
         <v>593591</v>
@@ -16366,16 +16366,16 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B175" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>442884</v>
@@ -16452,16 +16452,16 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D176" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E176">
         <v>896825</v>
@@ -16538,16 +16538,16 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D177" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E177">
         <v>28154</v>
@@ -16624,16 +16624,16 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B178" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>7032</v>
@@ -16710,16 +16710,16 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E179">
         <v>7646</v>
@@ -16796,16 +16796,16 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E180">
         <v>7382</v>
@@ -16882,16 +16882,16 @@
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E181">
         <v>1212317</v>
@@ -16968,16 +16968,16 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E182">
         <v>419256</v>
@@ -17054,16 +17054,16 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E183">
         <v>791539</v>
@@ -17140,16 +17140,16 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E184">
         <v>221244</v>
@@ -17226,16 +17226,16 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E185">
         <v>676665</v>
@@ -17312,16 +17312,16 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E186">
         <v>3083286</v>
@@ -17398,16 +17398,16 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187">
         <v>16878</v>
@@ -17484,16 +17484,16 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D188" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -17570,16 +17570,16 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E189">
         <v>10829</v>
@@ -17656,16 +17656,16 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190">
         <v>682600</v>
@@ -17742,16 +17742,16 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D191" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E191">
         <v>405630</v>
@@ -17828,16 +17828,16 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D192" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E192">
         <v>250399</v>
@@ -17914,16 +17914,16 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B193" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E193">
         <v>123404</v>
@@ -18000,16 +18000,16 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B194" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -18086,16 +18086,16 @@
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E195">
         <v>190419</v>
@@ -18172,16 +18172,16 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D196" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E196">
         <v>313082</v>
@@ -18258,16 +18258,16 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B197" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E197">
         <v>329197</v>
@@ -18344,16 +18344,16 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198">
         <v>1708</v>
@@ -18430,16 +18430,16 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B199" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E199">
         <v>23628</v>
@@ -18516,16 +18516,16 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" t="s">
         <v>93</v>
-      </c>
-      <c r="D200" t="s">
-        <v>94</v>
       </c>
       <c r="E200">
         <v>185649</v>
@@ -18602,16 +18602,16 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E201">
         <v>592860</v>
@@ -18688,16 +18688,16 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>151703</v>
@@ -18774,16 +18774,16 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B203" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E203">
         <v>31512</v>
@@ -18860,16 +18860,16 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B204" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E204">
         <v>150304</v>
@@ -18946,16 +18946,16 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B205" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E205">
         <v>276433</v>
@@ -19032,16 +19032,16 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" t="s">
+        <v>94</v>
+      </c>
+      <c r="D206" t="s">
         <v>95</v>
-      </c>
-      <c r="D206" t="s">
-        <v>96</v>
       </c>
       <c r="E206">
         <v>191086</v>
@@ -19118,16 +19118,16 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E207">
         <v>897738</v>
@@ -19204,16 +19204,16 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D208" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E208">
         <v>182922</v>
@@ -19290,16 +19290,16 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E209">
         <v>260992</v>
@@ -19376,16 +19376,16 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B210" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -19462,16 +19462,16 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D211" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -19548,16 +19548,16 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -19634,16 +19634,16 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -19720,16 +19720,16 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B214" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E214">
         <v>989328</v>
@@ -19806,16 +19806,16 @@
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E215">
         <v>208420</v>
@@ -19892,16 +19892,16 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -19978,16 +19978,16 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B217" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D217" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E217">
         <v>155251</v>
@@ -20064,16 +20064,16 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C218" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D218" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -20150,16 +20150,16 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E219">
         <v>390037</v>
@@ -20236,16 +20236,16 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
+        <v>98</v>
+      </c>
+      <c r="D220" t="s">
         <v>99</v>
-      </c>
-      <c r="D220" t="s">
-        <v>100</v>
       </c>
       <c r="E220">
         <v>1514</v>
@@ -20322,16 +20322,16 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B221" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E221">
         <v>216566</v>
@@ -20408,16 +20408,16 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E222">
         <v>332942</v>
@@ -20494,16 +20494,16 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B223" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E223">
         <v>4994</v>
@@ -20580,16 +20580,16 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="s">
+        <v>100</v>
+      </c>
+      <c r="D224" t="s">
         <v>101</v>
-      </c>
-      <c r="D224" t="s">
-        <v>102</v>
       </c>
       <c r="E224">
         <v>25632</v>
@@ -20666,16 +20666,16 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B225" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E225">
         <v>3462</v>
@@ -20752,16 +20752,16 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B226" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D226" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E226">
         <v>226169</v>
@@ -20838,16 +20838,16 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E227">
         <v>103691</v>
@@ -20924,16 +20924,16 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E228">
         <v>64185</v>
@@ -21010,16 +21010,16 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B229" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E229">
         <v>63506</v>
@@ -21096,16 +21096,16 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E230">
         <v>8936</v>
@@ -21182,16 +21182,16 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B231" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E231">
         <v>1279</v>
@@ -21268,16 +21268,16 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B232" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E232">
         <v>3541</v>
@@ -21354,16 +21354,16 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B233" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E233">
         <v>19031</v>
@@ -21440,16 +21440,16 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234">
         <v>15907</v>
@@ -21526,16 +21526,16 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B235" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E235">
         <v>1651</v>
@@ -21612,16 +21612,16 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E236">
         <v>376497</v>
@@ -21698,16 +21698,16 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B237" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E237">
         <v>46273</v>
@@ -21784,16 +21784,16 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D238" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -21870,16 +21870,16 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E239">
         <v>2526</v>
@@ -21956,16 +21956,16 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E240">
         <v>1736</v>
@@ -22042,16 +22042,16 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241">
         <v>6082</v>
@@ -22128,16 +22128,16 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E242">
         <v>115507</v>
@@ -22214,16 +22214,16 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E243">
         <v>21848</v>
@@ -22300,16 +22300,16 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -22386,16 +22386,16 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B245" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -22472,16 +22472,16 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E246">
         <v>5653</v>
@@ -22558,16 +22558,16 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B247" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E247">
         <v>433478</v>
@@ -22644,16 +22644,16 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B248" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E248">
         <v>179520</v>
@@ -22730,16 +22730,16 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D249" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E249">
         <v>48600</v>
@@ -22816,16 +22816,16 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B250" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E250">
         <v>241197</v>
@@ -22902,16 +22902,16 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B251" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D251" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E251">
         <v>134565</v>
@@ -22988,16 +22988,16 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D252" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E252">
         <v>301739</v>
@@ -23074,16 +23074,16 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B253" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253">
         <v>11388</v>
@@ -23160,16 +23160,16 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D254" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E254">
         <v>61214</v>
@@ -23246,16 +23246,16 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B255" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D255" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E255">
         <v>164625</v>
@@ -23332,16 +23332,16 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D256" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E256">
         <v>213805</v>
@@ -23418,16 +23418,16 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E257">
         <v>28004</v>
@@ -23504,16 +23504,16 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D258" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E258">
         <v>8406</v>
@@ -23590,16 +23590,16 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259">
         <v>1586</v>
@@ -23676,16 +23676,16 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E260">
         <v>5961</v>
@@ -23762,16 +23762,16 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B261" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D261" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E261">
         <v>315192</v>
@@ -23848,16 +23848,16 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B262" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E262">
         <v>946667</v>
@@ -23934,16 +23934,16 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B263" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -24020,16 +24020,16 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B264" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D264" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E264">
         <v>29298</v>
@@ -24106,16 +24106,16 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B265" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C265" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -24192,16 +24192,16 @@
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B266" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D266" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E266">
         <v>74651</v>
@@ -24278,16 +24278,16 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E267">
         <v>1263302</v>
@@ -24364,16 +24364,16 @@
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C268" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E268">
         <v>18593</v>
@@ -24450,16 +24450,16 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C269" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E269">
         <v>10026</v>
@@ -24536,16 +24536,16 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E270">
         <v>1244096</v>
@@ -24622,16 +24622,16 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E271">
         <v>82617</v>
@@ -24708,16 +24708,16 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B272" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -24794,16 +24794,16 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D273" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -24880,16 +24880,16 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" t="s">
+        <v>113</v>
+      </c>
+      <c r="D274" t="s">
         <v>114</v>
-      </c>
-      <c r="D274" t="s">
-        <v>115</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -24966,16 +24966,16 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D275" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E275">
         <v>2861</v>
@@ -25052,16 +25052,16 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B276" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D276" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -25138,16 +25138,16 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E277">
         <v>683</v>
@@ -25224,16 +25224,16 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -25310,16 +25310,16 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C279" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E279">
         <v>1382</v>
@@ -25396,16 +25396,16 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D280" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -25482,16 +25482,16 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -25568,16 +25568,16 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D282" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E282">
         <v>42902</v>
@@ -25654,16 +25654,16 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D283" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -25740,16 +25740,16 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E284">
         <v>19738</v>
@@ -25826,16 +25826,16 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E285">
         <v>3345</v>
@@ -25912,16 +25912,16 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D286" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E286">
         <v>94688</v>
@@ -25998,16 +25998,16 @@
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E287">
         <v>7714</v>
@@ -26084,16 +26084,16 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C288" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -26170,16 +26170,16 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D289" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E289">
         <v>1236</v>
@@ -26256,16 +26256,16 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D290" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E290">
         <v>1069</v>
@@ -26342,16 +26342,16 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C291" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E291">
         <v>6898</v>
@@ -26428,16 +26428,16 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B292" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D292" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E292">
         <v>1721</v>
